--- a/Excel Charts Tutorial File.xlsx
+++ b/Excel Charts Tutorial File.xlsx
@@ -1,83 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sadiqunnurayan/Documents/GitHub/Excel-Learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6932096A-5D74-844D-9DB8-A34BAAFD7822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DE6F03-73FF-48F4-8810-93B9FB8AE593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="12460" xr2:uid="{03CEABDE-3C67-4836-9FDD-609F2D7E7F08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{03CEABDE-3C67-4836-9FDD-609F2D7E7F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="3" r:id="rId1"/>
     <sheet name="Chart Sheet" sheetId="4" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sales!$A$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sales!$A$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sales!$B$5:$M$5</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sales!$B$6:$M$6</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sales!$B$7:$M$7</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sales!$B$8:$M$8</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sales!$B$9:$M$9</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sales!$A$3</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sales!$A$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sales!$A$5</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sales!$A$6</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sales!$A$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sales!$A$5</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sales!$A$8</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sales!$A$9</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sales!$B$1:$M$2</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sales!$B$3:$M$3</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sales!$B$4:$M$4</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sales!$B$5:$M$5</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sales!$B$6:$M$6</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sales!$B$7:$M$7</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sales!$B$8:$M$8</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sales!$B$9:$M$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sales!$A$6</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sales!$A$3</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sales!$A$4</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sales!$A$5</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sales!$A$6</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sales!$A$7</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sales!$A$8</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sales!$A$9</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sales!$B$1:$M$2</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sales!$B$3:$M$3</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sales!$B$4:$M$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sales!$A$7</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sales!$B$5:$M$5</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sales!$B$6:$M$6</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sales!$B$7:$M$7</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sales!$B$8:$M$8</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sales!$B$9:$M$9</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sales!$A$3</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sales!$A$4</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sales!$A$5</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sales!$A$6</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sales!$A$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sales!$A$8</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sales!$A$8</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sales!$A$9</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sales!$B$1:$M$2</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sales!$B$3:$M$3</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sales!$B$4:$M$4</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sales!$B$5:$M$5</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sales!$B$6:$M$6</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sales!$B$7:$M$7</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sales!$B$8:$M$8</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sales!$B$9:$M$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sales!$A$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sales!$B$1:$M$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sales!$B$3:$M$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sales!$B$4:$M$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -282,10 +220,19 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8931215268914329E-2"/>
+          <c:y val="0.35809362341268031"/>
+          <c:w val="0.87677950792310566"/>
+          <c:h val="0.40330435574165946"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -302,18 +249,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sales!$B$1:$M$2</c:f>
@@ -403,6 +349,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C6DD-A241-8E9C-4E2E3C3E12CE}"/>
@@ -424,18 +371,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sales!$B$1:$M$2</c:f>
@@ -525,6 +471,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C6DD-A241-8E9C-4E2E3C3E12CE}"/>
@@ -546,18 +493,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sales!$B$1:$M$2</c:f>
@@ -647,6 +593,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C6DD-A241-8E9C-4E2E3C3E12CE}"/>
@@ -668,18 +615,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sales!$B$1:$M$2</c:f>
@@ -769,6 +717,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C6DD-A241-8E9C-4E2E3C3E12CE}"/>
@@ -790,18 +739,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sales!$B$1:$M$2</c:f>
@@ -891,6 +841,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C6DD-A241-8E9C-4E2E3C3E12CE}"/>
@@ -912,18 +863,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sales!$B$1:$M$2</c:f>
@@ -1013,6 +965,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C6DD-A241-8E9C-4E2E3C3E12CE}"/>
@@ -1034,20 +987,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sales!$B$1:$M$2</c:f>
@@ -1137,6 +1090,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-C6DD-A241-8E9C-4E2E3C3E12CE}"/>
@@ -1144,19 +1098,17 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:smooth val="0"/>
         <c:axId val="1300423664"/>
         <c:axId val="555448192"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1300423664"/>
         <c:scaling>
@@ -1305,6 +1257,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1312,7 +1265,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2394,6 +2346,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2401,7 +2354,1131 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8931215268914329E-2"/>
+          <c:y val="0.35809362341268031"/>
+          <c:w val="0.87677950792310566"/>
+          <c:h val="0.40330435574165946"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFF4-441F-B15A-2FBC6B711D97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Printer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AFF4-441F-B15A-2FBC6B711D97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AFF4-441F-B15A-2FBC6B711D97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Staplers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AFF4-441F-B15A-2FBC6B711D97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 Ring Binder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AFF4-441F-B15A-2FBC6B711D97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Highlighters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AFF4-441F-B15A-2FBC6B711D97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AFF4-441F-B15A-2FBC6B711D97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1300423664"/>
+        <c:axId val="555448192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1300423664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555448192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="555448192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1300423664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2437,13 +3514,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2516,6 +3590,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3020,6 +4131,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3598,6 +5212,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68837E2A-91D6-4800-9625-A852AB8D0B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3905,17 +5557,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41930B34-5114-49CB-81BC-662EB848F545}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:N10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -3933,7 +5585,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3974,7 +5626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4019,7 +5671,7 @@
         <v>5071</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4064,7 +5716,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -4109,7 +5761,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -4154,7 +5806,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -4199,7 +5851,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -4244,7 +5896,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4289,7 +5941,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -4360,9 +6012,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B444C6-5638-496B-93B2-259D582C3A1D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
